--- a/catalogsList/Источники данных.xlsx
+++ b/catalogsList/Источники данных.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>ИС/НПА/Ссылка</t>
   </si>
@@ -263,6 +263,15 @@
   </si>
   <si>
     <t>Нет данных</t>
+  </si>
+  <si>
+    <t>subForestry</t>
+  </si>
+  <si>
+    <t>Виды земель</t>
+  </si>
+  <si>
+    <t>landType</t>
   </si>
 </sst>
 </file>
@@ -390,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,9 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -421,6 +427,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -448,19 +467,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -762,482 +768,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
-    <col min="4" max="4" width="83" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="115.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" customWidth="1"/>
+    <col min="5" max="5" width="83" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="115.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="F5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="26" t="s">
+      <c r="C15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="18">
         <v>15</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="C16" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="19"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="11" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>17</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="18">
+        <v>18</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="D21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="19"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>18</v>
-      </c>
-      <c r="B23" s="11" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>19</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>20</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="E25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>20</v>
-      </c>
-      <c r="B25" s="11" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>21</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>21</v>
-      </c>
-      <c r="B26" s="11" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>22</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="8"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/catalogsList/Источники данных.xlsx
+++ b/catalogsList/Источники данных.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>ИС/НПА/Ссылка</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>landType</t>
+  </si>
+  <si>
+    <t>municipalDistrict</t>
+  </si>
+  <si>
+    <t>Муниципальные образования</t>
+  </si>
+  <si>
+    <t>https://rosstat.gov.ru/opendata/7708234640-oktmo</t>
   </si>
 </sst>
 </file>
@@ -771,7 +780,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,6 +1260,22 @@
       <c r="G27" s="2" t="s">
         <v>74</v>
       </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>23</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D32" s="7"/>

--- a/catalogsList/Источники данных.xlsx
+++ b/catalogsList/Источники данных.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>ИС/НПА/Ссылка</t>
   </si>
@@ -281,13 +281,23 @@
   </si>
   <si>
     <t>https://rosstat.gov.ru/opendata/7708234640-oktmo</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО ПРИРОДНЫХ РЕСУРСОВ И ЭКОЛОГИИ РОССИЙСКОЙ ФЕДЕРАЦИИ ПРИКАЗ
+от 18 августа 2014 года N 367</t>
+  </si>
+  <si>
+    <t>Лесные районы</t>
+  </si>
+  <si>
+    <t>forestArea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +320,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -408,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,6 +466,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -779,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,13 +1092,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="18">
+      <c r="B16" s="21">
         <v>15</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -1088,9 +1110,9 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="8" t="s">
         <v>60</v>
       </c>
@@ -1100,9 +1122,9 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="13" t="s">
         <v>64</v>
       </c>
@@ -1148,13 +1170,13 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="18">
+      <c r="B21" s="21">
         <v>18</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -1166,9 +1188,9 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="8" t="s">
         <v>62</v>
       </c>
@@ -1178,9 +1200,9 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="13" t="s">
         <v>63</v>
       </c>
@@ -1276,6 +1298,22 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="19">
+        <v>24</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D32" s="7"/>
